--- a/biology/Zoologie/Chungkingosaurus/Chungkingosaurus.xlsx
+++ b/biology/Zoologie/Chungkingosaurus/Chungkingosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chungkingosaurus jiangbeiensis
 Chungkingosaurus est un genre éteint de dinosaures herbivores quadrupèdes de petite taille de l'infra-ordre des stégosauriens qui vécut en Chine durant le Jurassique supérieur, à l'Oxfordien, soit il y a environ entre 163 et 157 Ma (millions d'années).
-L'espèce type et seule espèce rattachée au genre, Chungkingosaurus jiangbeiensis, a été nommée et décrite par Dong Zhiming et al. en 1983[1].
+L'espèce type et seule espèce rattachée au genre, Chungkingosaurus jiangbeiensis, a été nommée et décrite par Dong Zhiming et al. en 1983.
 Le genre est basé sur l'holotype CV 00206 retrouvé dans la partie supérieure de la formation géologique de Shaximiao près de Chongqing.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom nom générique Chungkingosaurus vient du nom de la municipalité de « Chongqing » (chinois simplifié : 重庆 ; chinois traditionnel : 重慶 ; pinyin : Chóngqìng ou Ch'ung-ch'ing) de la république populaire de Chine dans laquelle les fossiles ont été découverts, et du grec ancien σαῦρος / saûros (« lézard ») pour signifier « lézard de Chongqing ».
 Le nom spécifique, jiangbeiensis, se réfère au district de Jiangbei de la municipalité de Chongqing.
@@ -546,14 +560,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chungkingosaurus était un stégosaurien de taille moyenne. Sa longueur maximale est estimée à 5 mètres, soit  moins que celle de ses cousins Stegosaurus ou Dacentrurus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chungkingosaurus était un stégosaurien de taille moyenne. Sa longueur maximale est estimée à 5 mètres, soit  moins que celle de ses cousins Stegosaurus ou Dacentrurus.
 Comme tous les stégosauriens, il possède une petite tête allongée, un long cou et un dos couvert d'une probablement double rangée de plaques osseuses plus ou moins pointues qui s'étendent sur toute la longueur de la colonne vertébrale. Ces plaques et ces pointes ne sont pas reliées à la colonne vertébrale, mais imbriquées dans une peau épaisse.
 Le bout de sa queue porte 8 pointes :
 un groupe de trois paires de grandes pointes coniques, dirigées vers le haut, mais obliquement ;
 à l'extrémité de sa queue, une autre paire de pointes effilées, horizontales et légèrement obliques par rapport à l'axe de la queue.
-Cette arme défensive est appelée de façon informelle un « thagomizer ». Avec ses huit pointes, le « thagomizer » de Chungkingosaurus a été surnommé « la pelote à épingles  » par le paléontologue G. S. Paul[3],[2].
+Cette arme défensive est appelée de façon informelle un « thagomizer ». Avec ses huit pointes, le « thagomizer » de Chungkingosaurus a été surnommé « la pelote à épingles  » par le paléontologue G. S. Paul,.
 </t>
         </is>
       </c>
@@ -582,12 +598,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chungkingosaurus a été d'abord classé chez les Stegosaurinae[1]. En 2006, S. Maidment et G. Wei considèrent qu'il est un Stegosauria basal[4]. En 2008, il est classé chez les Huayangosauridae[5].
-Cladogramme
-Les analyses cladistiques réalisées en 2009 et 2010, respectivement par O. Mateus et al.[6] et S. Maidment et al.[7] montrent des résultats similaires et aboutissent à un cladogramme simplifié.
-Chungkingosaurus est un stégosaurien assez primitif associé en groupe frère avec le genre Huayangosaurus dans la famille des Huayangosauridae. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chungkingosaurus a été d'abord classé chez les Stegosaurinae. En 2006, S. Maidment et G. Wei considèrent qu'il est un Stegosauria basal. En 2008, il est classé chez les Huayangosauridae.
 </t>
         </is>
       </c>
@@ -613,13 +628,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses cladistiques réalisées en 2009 et 2010, respectivement par O. Mateus et al. et S. Maidment et al. montrent des résultats similaires et aboutissent à un cladogramme simplifié.
+Chungkingosaurus est un stégosaurien assez primitif associé en groupe frère avec le genre Huayangosaurus dans la famille des Huayangosauridae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chungkingosaurus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chungkingosaurus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jeux vidéo
-Chungkingosaurus apparait dans le jeu de gestion Jurassic World Evolution (2018).</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chungkingosaurus apparait dans le jeu de gestion Jurassic World Evolution (2018).</t>
         </is>
       </c>
     </row>
